--- a/leads_quebec_plomberie.xlsx
+++ b/leads_quebec_plomberie.xlsx
@@ -504,840 +504,840 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Plomberie Levasseur &amp; Fils | Plombier à Québec</t>
+          <t>Plomberie Solutions MJ Inc.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>769 Rue de Coligny, Québec, QC G2K 2M6</t>
+          <t>A-581 Rue Marius-Fortier, Québec, QC G1C 0N4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12575381276523096320&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13357338345029790198&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46.84061579999999</v>
+        <v>46.8926546</v>
       </c>
       <c r="G3" t="n">
-        <v>-71.2913519</v>
+        <v>-71.1868063</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ChIJO3EqIbJBx0wRAOlBzqS6hK4</t>
+          <t>ChIJKUDy-_S9uEwR9mk0YHTMXrk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plomberie Solutions MJ Inc.</t>
+          <t>Plomberie Débouche Expert 24/7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A-581 Rue Marius-Fortier, Québec, QC G1C 0N4</t>
+          <t>3047 Rue Lechasseur, Québec, QC G1W 1L2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13357338345029790198&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5814416574411631864&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>46.8926546</v>
+        <v>46.7596224</v>
       </c>
       <c r="G4" t="n">
-        <v>-71.1868063</v>
+        <v>-71.2907118</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ChIJKUDy-_S9uEwR9mk0YHTMXrk</t>
+          <t>ChIJq841fDqRuEwR-OzyfRH1sFA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Plomberie Débouche Expert 24/7</t>
+          <t>Plomberie Amiral</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3047 Rue Lechasseur, Québec, QC G1W 1L2</t>
+          <t>325 Rue Raoul-Jobin, Québec, QC G1K 1M9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5814416574411631864&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13003271467615787808&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46.7596224</v>
+        <v>46.8113307</v>
       </c>
       <c r="G5" t="n">
-        <v>-71.2907118</v>
+        <v>-71.23754009999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ChIJq841fDqRuEwR-OzyfRH1sFA</t>
+          <t>ChIJE695ay9db2sRIBs2aYHmdLQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Plomberie Amiral</t>
+          <t>SOS Plomberie | Urgences 24/7, Débouchage, Inspection par caméra &amp; Rénovation à Québec</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>325 Rue Raoul-Jobin, Québec, QC G1K 1M9</t>
+          <t>356 Rue Jackson Suite 101, Québec, QC G1N 4C5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13003271467615787808&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5598130639862089749&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>46.8113307</v>
+        <v>46.8016776</v>
       </c>
       <c r="G6" t="n">
-        <v>-71.23754009999999</v>
+        <v>-71.2624421</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ChIJE695ay9db2sRIBs2aYHmdLQ</t>
+          <t>ChIJrRirMzG9uEwRFcg1IyiOsE0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plomberie Jeff Gagné inc.</t>
+          <t>Plomberie Levasseur &amp; Fils | Plombier à Québec</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2061 Rue Gérard Bergeron, Québec, QC G1P 2W4</t>
+          <t>769 Rue de Coligny, Québec, QC G2K 2M6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7927500919212732575&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12575381276523096320&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>46.81333559999999</v>
+        <v>46.84061579999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-71.29362929999999</v>
+        <v>-71.2913519</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ChIJVZQN16aXuEwRn_BBlhUkBG4</t>
+          <t>ChIJO3EqIbJBx0wRAOlBzqS6hK4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Plomberie Quessy</t>
+          <t>Plomberie Fortin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1332 Rue Pierre-Beaumont A-100, Lévis, QC G6Z 2L1</t>
+          <t>4850 3e Avenue O, Québec, QC G1H 6R4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1253598390143357638&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17956900087655928545&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>46.7055026</v>
+        <v>46.8445936</v>
       </c>
       <c r="G8" t="n">
-        <v>-71.2246889</v>
+        <v>-71.2564703</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ChIJRU22w_aSuEwRxhJ_DxitZRE</t>
+          <t>ChIJ1UlCHc4Wv0wR4ZLpb325M_k</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plomberie Ghislain Gagné inc. | Plombier Ville de Québec</t>
+          <t>Boucher Lortie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5237 Wilfrid-Hamel Blvd Suite 190, Québec City, QC G2E 2H2</t>
+          <t>850 Rue des Rocailles, Québec, QC G2J 1A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8033770198650019317&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=10379916160859026397&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>46.8012045</v>
+        <v>46.8348379</v>
       </c>
       <c r="G9" t="n">
-        <v>-71.3346052</v>
+        <v>-71.280013</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ChIJbRwvmnGXuEwR9V2nUW6vfW8</t>
+          <t>ChIJ7ydhc8SXuEwR3bNWzsDeDJA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOS Plomberie | Urgences 24/7, Débouchage, Inspection par caméra &amp; Rénovation à Québec</t>
+          <t>Plomberie &amp; excavation m3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>356 Rue Jackson Suite 101, Québec, QC G1N 4C5</t>
+          <t>4560 3e Avenue O, Québec, QC G1H 6E5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5598130639862089749&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2529716385818541861&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>46.8016776</v>
+        <v>46.8426745</v>
       </c>
       <c r="G10" t="n">
-        <v>-71.2624421</v>
+        <v>-71.25470319999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ChIJrRirMzG9uEwRFcg1IyiOsE0</t>
+          <t>ChIJbwGGRC-XuEwRJf8yX6ZbGyM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Plomberie Avantage SP | Débouchage &amp; Plombier à Lévis</t>
+          <t>Le Groupe LOGIC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2864 Rue de Lusignan, Lévis, QC G6W 8K4</t>
+          <t>275 Ave Saint-Sacrement #190, Québec, QC G1N 1N3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15471963140437735643&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=18222881974587023444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>46.764503</v>
+        <v>46.8016627</v>
       </c>
       <c r="G11" t="n">
-        <v>-71.21063959999999</v>
+        <v>-71.2603884</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ChIJbZFR-yWB3oQR23i6k4B0t9Y</t>
+          <t>ChIJ0-3vDq-9uEwRVOAgX5uu5Pw</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Plomberie X-EAU</t>
+          <t>Plomberie Quessy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10425 Rue de Bretagne, Québec, QC G2B 2R2</t>
+          <t>1332 Rue Pierre-Beaumont A-100, Lévis, QC G6Z 2L1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12060225707467523611&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1253598390143357638&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46.8538228</v>
+        <v>46.7055026</v>
       </c>
       <c r="G12" t="n">
-        <v>-71.33519</v>
+        <v>-71.2246889</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ChIJ01pEqYWXvE8RG8aiFGKHXqc</t>
+          <t>ChIJRU22w_aSuEwRxhJ_DxitZRE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Plomberie D. Labrecque</t>
+          <t>Plomberie Sylvain Genois</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1480 Rue Jandomien, L'Ancienne-Lorette, QC G2E 1T8</t>
+          <t>8250 Rue des Grizzlis, Québec, QC G1G 1A6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7515728362979185801&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14090014467230099246&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>46.8053472</v>
+        <v>46.89068349999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-71.3496847</v>
+        <v>-71.2947729</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ChIJJ0zLjkBw06IRidSzRyA7TWg</t>
+          <t>ChIJWQx6AtiiuEwRLmddf4HJicM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Plomberie Fortin</t>
+          <t>Plomberie Jeff Gagné inc.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4850 3e Avenue O, Québec, QC G1H 6R4</t>
+          <t>2061 Rue Gérard Bergeron, Québec, QC G1P 2W4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17956900087655928545&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7927500919212732575&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46.8445936</v>
+        <v>46.81333559999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-71.2564703</v>
+        <v>-71.29362929999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ChIJ1UlCHc4Wv0wR4ZLpb325M_k</t>
+          <t>ChIJVZQN16aXuEwRn_BBlhUkBG4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Le Groupe LOGIC</t>
+          <t>Plomberie Ghislain Gagné inc. | Plombier Ville de Québec</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>275 Ave Saint-Sacrement #190, Québec, QC G1N 1N3</t>
+          <t>5237 Wilfrid-Hamel Blvd Suite 190, Québec City, QC G2E 2H2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18222881974587023444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8033770198650019317&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46.8016627</v>
+        <v>46.8012045</v>
       </c>
       <c r="G15" t="n">
-        <v>-71.2603884</v>
+        <v>-71.3346052</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ChIJ0-3vDq-9uEwRVOAgX5uu5Pw</t>
+          <t>ChIJbRwvmnGXuEwR9V2nUW6vfW8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Boucher Lortie</t>
+          <t>Plomberie Amad'eau</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>850 Rue des Rocailles, Québec, QC G2J 1A5</t>
+          <t>1449 Avenue de la Montagne E, Québec, QC G3K 1R8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=10379916160859026397&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=9595328968733221011&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>46.8348379</v>
+        <v>46.8502869</v>
       </c>
       <c r="G16" t="n">
-        <v>-71.280013</v>
+        <v>-71.41838749999999</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ChIJ7ydhc8SXuEwR3bNWzsDeDJA</t>
+          <t>ChIJY7OAr-KZuEwRk-Bb3Nt0KYU</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Plomberie AquaMax Inc</t>
+          <t>Plomberie Avantage SP | Débouchage &amp; Plombier à Lévis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>96 Des Monardes, Sainte-Brigitte-de-Laval, QC G0A 3K0</t>
+          <t>2864 Rue de Lusignan, Lévis, QC G6W 8K4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15809396369182867683&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15471963140437735643&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>46.987798</v>
+        <v>46.764503</v>
       </c>
       <c r="G17" t="n">
-        <v>-71.211856</v>
+        <v>-71.21063959999999</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ChIJ4WqQnDmluEwR48B-ajxCZts</t>
+          <t>ChIJbZFR-yWB3oQR23i6k4B0t9Y</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Plomberie &amp; excavation m3</t>
+          <t>Plomberie X-EAU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4560 3e Avenue O, Québec, QC G1H 6E5</t>
+          <t>10425 Rue de Bretagne, Québec, QC G2B 2R2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2529716385818541861&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12060225707467523611&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>46.8426745</v>
+        <v>46.8538228</v>
       </c>
       <c r="G18" t="n">
-        <v>-71.25470319999999</v>
+        <v>-71.33519</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ChIJbwGGRC-XuEwRJf8yX6ZbGyM</t>
+          <t>ChIJ01pEqYWXvE8RG8aiFGKHXqc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Plombier All'eau inc</t>
+          <t>Plomberie D. Labrecque</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1573 Rue Ranvoyzé, Québec, QC G1W 3J8</t>
+          <t>1480 Rue Jandomien, L'Ancienne-Lorette, QC G2E 1T8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3253409267701587310&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7515728362979185801&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>46.764232</v>
+        <v>46.8053472</v>
       </c>
       <c r="G19" t="n">
-        <v>-71.27565299999999</v>
+        <v>-71.3496847</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ChIJcdMjaUqRuEwRbh1R3n1uJi0</t>
+          <t>ChIJJ0zLjkBw06IRidSzRyA7TWg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Débouchage Économique</t>
+          <t>Débouchage DM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>162 Rue Isaie, Québec, QC G1C 3Z6</t>
+          <t>8290 3e Avenue E, Québec, QC G1G 3T4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13898480359845417960&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12182873668345565139&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>46.8923235</v>
+        <v>46.8668521</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.15800609999999</v>
+        <v>-71.2674708</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ChIJAZ3vYzW_uEwR6FNU_j9S4cA</t>
+          <t>ChIJjzOEZUIkvUIR048ywQ1DEqk</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Plomberie Sylvain Genois</t>
+          <t>Plomberie Lorenzo Robitaille et Fils Inc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8250 Rue des Grizzlis, Québec, QC G1G 1A6</t>
+          <t>1140 Rue St Paul, L'Ancienne-Lorette, QC G2E 1Y3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14090014467230099246&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1056530109726939484&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>46.89068349999999</v>
+        <v>46.8014221</v>
       </c>
       <c r="G21" t="n">
-        <v>-71.2947729</v>
+        <v>-71.34549539999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ChIJWQx6AtiiuEwRLmddf4HJicM</t>
+          <t>ChIJs4aicN6ZuEwRXFnHfImMqQ4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Plomberie Charles Richard Inc</t>
+          <t>Débouchage Économique</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>615 Bd Pierre-Bertrand, Québec, QC G1M 3J3</t>
+          <t>162 Rue Isaie, Québec, QC G1C 3Z6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5058649129182464454&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13898480359845417960&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>46.82053699999999</v>
+        <v>46.8923235</v>
       </c>
       <c r="G22" t="n">
-        <v>-71.26957899999999</v>
+        <v>-71.15800609999999</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ChIJ9zen4Ri8uEwRxolCxJTuM0Y</t>
+          <t>ChIJAZ3vYzW_uEwR6FNU_j9S4cA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Plomberie J-Y Paquet inc.</t>
+          <t>Urgence débouchage Quebec</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2073 Av. Branly Bureau 207, Québec, QC G1N 4C7</t>
+          <t>1210 Rue J. A. Bombardier, Saint-Nicolas, QC G7A 2P4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8304718752594394229&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=11475988914217938144&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46.7935947</v>
+        <v>46.6751935</v>
       </c>
       <c r="G23" t="n">
-        <v>-71.2722325</v>
+        <v>-71.34062059999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ChIJxw3VR8C9uEwRdfzph7RJQHM</t>
+          <t>ChIJrZAwG4iPuEwR4OxHdh3nQp8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PlomberieTitan Inc.</t>
+          <t>Plomberie AquaMax Inc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>714 Rue de Saint-Romuald, Lévis, QC G6W 5M6</t>
+          <t>96 Des Monardes, Sainte-Brigitte-de-Laval, QC G0A 3K0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1339845839317842370&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15809396369182867683&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>46.7469797</v>
+        <v>46.987798</v>
       </c>
       <c r="G24" t="n">
-        <v>-71.2238218</v>
+        <v>-71.211856</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ChIJGXyLh5GTuEwRwjlTKrEWmBI</t>
+          <t>ChIJ4WqQnDmluEwR48B-ajxCZts</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PLOMBERIE DE LA CHAUDIÈRE</t>
+          <t>Plomberie Bernier Inc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2084 Chem. Vanier, Saint-Jean-Chrysostome, QC G6Z 1A5</t>
+          <t>59 Rue Laliberté, Lévis, QC G6J 1Z5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6513233300439749058&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13187208562631615493&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>46.738726</v>
+        <v>46.660729</v>
       </c>
       <c r="G25" t="n">
-        <v>-71.2038761</v>
+        <v>-71.29707599999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ChIJbcXt8pmTuEwRwtH0my2nY1o</t>
+          <t>ChIJp7HdrVSYx0wRBaSlolFgArc</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Plomberie Amad'eau</t>
+          <t>SOS Drainage - Inspection de drain agricole, Français et sanitaire à Québec/Excavation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1449 Avenue de la Montagne E, Québec, QC G3K 1R8</t>
+          <t>885 Av. des Diamants, Québec, QC G2L 2V4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9595328968733221011&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=10885420247312803818&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>46.8502869</v>
+        <v>46.87898680000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-71.41838749999999</v>
+        <v>-71.25575719999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ChIJY7OAr-KZuEwRk-Bb3Nt0KYU</t>
+          <t>ChIJWTTXmlCWuEwR6qfsnwrIEJc</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOS Drainage - Inspection de drain agricole, Français et sanitaire à Québec/Excavation</t>
+          <t>Terexca - Excavation et drainage</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>885 Av. des Diamants, Québec, QC G2L 2V4</t>
+          <t>356 Rue Jackson, Québec, QC G1N 4C5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=10885420247312803818&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7531966909072222458&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46.87898680000001</v>
+        <v>46.8017464</v>
       </c>
       <c r="G27" t="n">
-        <v>-71.25575719999999</v>
+        <v>-71.2624091</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ChIJWTTXmlCWuEwR6qfsnwrIEJc</t>
+          <t>ChIJ78LZOP2WuEwR-ig_a__rhmg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Plomberie à bas prix</t>
+          <t>Plomberie signature inc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>33 Chem. Ferland N, L'Ange-Gardien, QC G0A 2K0</t>
+          <t>1323 Rue Gunter, Québec, QC G3J 1M5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13038431323211578554&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=700984619681542423&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>46.9600714</v>
+        <v>46.8689653</v>
       </c>
       <c r="G28" t="n">
-        <v>-71.12988349999999</v>
+        <v>-71.4467082</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ChIJpUpKO827uEwRujxaODXQ8bQ</t>
+          <t>ChIJRV843GafuEwRF3EhMcxlugk</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Plomberie François Gagnon</t>
+          <t>Plomberie Pichette Inc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>587 Rue Veillon, Québec, QC G1C 7L4</t>
+          <t>965 Av. Godin, Québec, QC G1M 2X5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5003826740369794036&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=9016192366198275212&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>46.8851348</v>
+        <v>46.8247772</v>
       </c>
       <c r="G29" t="n">
-        <v>-71.19568649999999</v>
+        <v>-71.28211180000001</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ChIJ-2DD14m9uEwR9KNXsegpcUU</t>
+          <t>ChIJmV52vrmXuEwRjDzW7S_zH30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAC PLOMBERIE</t>
+          <t>Plomberie François Gagnon</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1251-B Rue Paul-Émile-Giroux, Québec, QC G1C 0K9</t>
+          <t>587 Rue Veillon, Québec, QC G1C 7L4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8336167483269235974&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5003826740369794036&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>46.8897625</v>
+        <v>46.8851348</v>
       </c>
       <c r="G30" t="n">
-        <v>-71.17994620000002</v>
+        <v>-71.19568649999999</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ChIJmdF_5zy8uEwRBsVsvCgEsHM</t>
+          <t>ChIJ-2DD14m9uEwR9KNXsegpcUU</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Plomberie signature inc</t>
+          <t>Plombier All'eau inc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1323 Rue Gunter, Québec, QC G3J 1M5</t>
+          <t>1573 Rue Ranvoyzé, Québec, QC G1W 3J8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=700984619681542423&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=3253409267701587310&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>46.8689653</v>
+        <v>46.764232</v>
       </c>
       <c r="G31" t="n">
-        <v>-71.4467082</v>
+        <v>-71.27565299999999</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ChIJRV843GafuEwRF3EhMcxlugk</t>
+          <t>ChIJcdMjaUqRuEwRbh1R3n1uJi0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Débouchage DM</t>
+          <t>Plomberie à bas prix</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8290 3e Avenue E, Québec, QC G1G 3T4</t>
+          <t>33 Chem. Ferland N, L'Ange-Gardien, QC G0A 2K0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12182873668345565139&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13038431323211578554&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>46.8668521</v>
+        <v>46.9600714</v>
       </c>
       <c r="G32" t="n">
-        <v>-71.2674708</v>
+        <v>-71.12988349999999</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ChIJjzOEZUIkvUIR048ywQ1DEqk</t>
+          <t>ChIJpUpKO827uEwRujxaODXQ8bQ</t>
         </is>
       </c>
     </row>
@@ -1372,784 +1372,784 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Plomberie Patoine</t>
+          <t>Plomberie Charles Richard Inc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1108 Rue des Îles-Du-Vent, Lévis, QC G7A 0G8</t>
+          <t>615 Bd Pierre-Bertrand, Québec, QC G1M 3J3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18301322236904799568&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5058649129182464454&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>46.7102998</v>
+        <v>46.82053699999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-71.3718523</v>
+        <v>-71.26957899999999</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ChIJB-Qe5RG9uEwRUP2qIpxb-_0</t>
+          <t>ChIJ9zen4Ri8uEwRxolCxJTuM0Y</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Québec Plombier</t>
+          <t>PLOMBERIE chauffage montreal</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8080 Rue de Burgos, Québec, QC G2C 0H4</t>
+          <t>1020 Rue Bouvier, Québec, QC G2K 0K9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12839920322459034782&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=16772508769219017552&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>46.8387646</v>
+        <v>46.8309894</v>
       </c>
       <c r="G35" t="n">
-        <v>-71.3343441</v>
+        <v>-71.283241</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ChIJ2QrmTxOXuEwRnmR9JIGPMLI</t>
+          <t>ChIJ68VTd00NyUwRUHtsbdzrw-g</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Plomberie Dufour inc.</t>
+          <t>Dubéxpert Inc - Plomberie, chauffage, électricité et drain à Québec</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3247 Rue du Golf, Québec, QC G2A 1G1</t>
+          <t>2205 Wilfrid-Hamel Blvd #100a, Québec City, QC G1P 2H8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12269831129571717854&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7425244944671681513&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>46.8584405</v>
+        <v>46.8062143</v>
       </c>
       <c r="G36" t="n">
-        <v>-71.3712173</v>
+        <v>-71.29279869999999</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ChIJP182pISYuEwR3vImbGcyR6o</t>
+          <t>ChIJhyrKBXOXuEwR6atrwe_EC2c</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Plomberie Orléans Inc</t>
+          <t>Plomberie J-Y Paquet inc.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3 Rue de Moncel, Québec, QC G1E 5M8</t>
+          <t>2073 Av. Branly Bureau 207, Québec, QC G1N 4C7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13073018450301760487&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8304718752594394229&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>46.8592805</v>
+        <v>46.7935947</v>
       </c>
       <c r="G37" t="n">
-        <v>-71.18168659999999</v>
+        <v>-71.2722325</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ChIJd761-3e-uEwR5zNdSASxbLU</t>
+          <t>ChIJxw3VR8C9uEwRdfzph7RJQHM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Plomberie Lorenzo Robitaille et Fils Inc</t>
+          <t>Plomberie Patoine</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1140 Rue St Paul, L'Ancienne-Lorette, QC G2E 1Y3</t>
+          <t>1108 Rue des Îles-Du-Vent, Lévis, QC G7A 0G8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1056530109726939484&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=18301322236904799568&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>46.8014221</v>
+        <v>46.7102998</v>
       </c>
       <c r="G38" t="n">
-        <v>-71.34549539999999</v>
+        <v>-71.3718523</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ChIJs4aicN6ZuEwRXFnHfImMqQ4</t>
+          <t>ChIJB-Qe5RG9uEwRUP2qIpxb-_0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JF Plomberie Électricité</t>
+          <t>PLOMBERIE DE LA CHAUDIÈRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1231 Rue de Châteauneuf du Pape, Québec, QC G3E 1Y8</t>
+          <t>2084 Chem. Vanier, Saint-Jean-Chrysostome, QC G6Z 1A5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12395658752143686760&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=6513233300439749058&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>46.8714627</v>
+        <v>46.738726</v>
       </c>
       <c r="G39" t="n">
-        <v>-71.31658779999999</v>
+        <v>-71.2038761</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ChIJfX6nWb6iuEwRaHx8xvU5Bqw</t>
+          <t>ChIJbcXt8pmTuEwRwtH0my2nY1o</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Groupe Lachance Plomberie Chauffage</t>
+          <t>PlomberieTitan Inc.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>429 Rue Seigneuriale, Québec, QC G1C 3R2</t>
+          <t>714 Rue de Saint-Romuald, Lévis, QC G6W 5M6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17674381058117155865&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1339845839317842370&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46.8871717</v>
+        <v>46.7469797</v>
       </c>
       <c r="G40" t="n">
-        <v>-71.2091243</v>
+        <v>-71.2238218</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ChIJ_SuHQnq8uEwRGTz38e0DSPU</t>
+          <t>ChIJGXyLh5GTuEwRwjlTKrEWmBI</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Plomberie C Lyonnais Inc.</t>
+          <t>Plomberie Dufour inc.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>700 Rue J. E. Cauchon, Québec City, QC G1J 2S9</t>
+          <t>3247 Rue du Golf, Québec, QC G2A 1G1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=10185055236162651895&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12269831129571717854&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>46.8267018</v>
+        <v>46.8584405</v>
       </c>
       <c r="G41" t="n">
-        <v>-71.22555509999999</v>
+        <v>-71.3712173</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ChIJ00TR4RCWuEwR9wY1ScaVWI0</t>
+          <t>ChIJP182pISYuEwR3vImbGcyR6o</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Plomberie Fernand Bélanger Inc</t>
+          <t>MAC PLOMBERIE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1205 Rue Francois Normand #110, Levis, QC G7A 5L9</t>
+          <t>1251-B Rue Paul-Émile-Giroux, Québec, QC G1C 0K9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17797040426531769046&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8336167483269235974&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>46.6720358</v>
+        <v>46.8897625</v>
       </c>
       <c r="G42" t="n">
-        <v>-71.33874419999999</v>
+        <v>-71.17994620000002</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ChIJG7imuTCQuEwR1kqxpPnJ-_Y</t>
+          <t>ChIJmdF_5zy8uEwRBsVsvCgEsHM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Plomberie R. Bernard et fils Inc</t>
+          <t>JF Plomberie Électricité</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>555 Rue de Kilkenny, Shannon, QC G3N 3C3</t>
+          <t>1231 Rue de Châteauneuf du Pape, Québec, QC G3E 1Y8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6483962269078293536&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12395658752143686760&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>46.9097495</v>
+        <v>46.8714627</v>
       </c>
       <c r="G43" t="n">
-        <v>-71.6118477</v>
+        <v>-71.31658779999999</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ChIJvTepTgtex0wRIIxyiVSp-1k</t>
+          <t>ChIJfX6nWb6iuEwRaHx8xvU5Bqw</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Plomberie Bernier Inc</t>
+          <t>Plomberie B4 inc.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>59 Rue Laliberté, Lévis, QC G6J 1Z5</t>
+          <t>6 Av. Dion, Saint-Charles-de-Bellechasse, QC G0R 2T0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13187208562631615493&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7790127853041690178&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>46.660729</v>
+        <v>46.7675312</v>
       </c>
       <c r="G44" t="n">
-        <v>-71.29707599999999</v>
+        <v>-70.9469113</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ChIJp7HdrVSYx0wRBaSlolFgArc</t>
+          <t>ChIJ1SFvoJM7F2IRQiZtKwIYHGw</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Plomberie Mathieu Parent Inc</t>
+          <t>Québec Plombier</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7 Rue Industrielle, Saint-Bernard, QC G0S 2G0</t>
+          <t>8080 Rue de Burgos, Québec, QC G2C 0H4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2583943458677549132&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12839920322459034782&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>46.5022078</v>
+        <v>46.8387646</v>
       </c>
       <c r="G45" t="n">
-        <v>-71.1364334</v>
+        <v>-71.3343441</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ChIJXQ-DlX9YuEwRTGgrpuIC3CM</t>
+          <t>ChIJ2QrmTxOXuEwRnmR9JIGPMLI</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Plomberie Toutant Services INC</t>
+          <t>Techno-Pompes Inc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2085 Rue de l'Alliance, Québec, QC G3E 2J1</t>
+          <t>6055 Rue des Tournelles, Québec, QC G2J 1P7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15481201611552742278&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13295273233957485440&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>46.8738774</v>
+        <v>46.8397462</v>
       </c>
       <c r="G46" t="n">
-        <v>-71.34533639999999</v>
+        <v>-71.27970239999999</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ChIJfd7uHr-juEwRhlvOwNdG2NY</t>
+          <t>ChIJN-STwtyXuEwRgHvLnZBMgrg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Plomberie G-NIE</t>
+          <t>Plomberie Fernand Bélanger Inc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1791 Chem. de Château-Bigot, Québec, QC G2L 1T8</t>
+          <t>1205 Rue Francois Normand #110, Levis, QC G7A 5L9</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14241974635399196381&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17797040426531769046&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>46.8986007</v>
+        <v>46.6720358</v>
       </c>
       <c r="G47" t="n">
-        <v>-71.25444949999999</v>
+        <v>-71.33874419999999</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ChIJAQDsMsS8uEwR3a4XQ3mopcU</t>
+          <t>ChIJG7imuTCQuEwR1kqxpPnJ-_Y</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Plomberie M3</t>
+          <t>Plomberie Mathieu Parent Inc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>527 Rte des Prêtres, Saint-Pierre, QC G0A 4E0</t>
+          <t>7 Rue Industrielle, Saint-Bernard, QC G0S 2G0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14713229029869155919&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2583943458677549132&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>46.8874657</v>
+        <v>46.5022078</v>
       </c>
       <c r="G48" t="n">
-        <v>-71.0686717</v>
+        <v>-71.1364334</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ChIJYeKhG2C_uEwRT_ZQQNnjL8w</t>
+          <t>ChIJXQ-DlX9YuEwRTGgrpuIC3CM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Plomberie JPR</t>
+          <t>Marcel Leblanc &amp; Fils Inc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2511 Rte du Président-Kennedy, Saint-Henri, QC G0R 3E0</t>
+          <t>1400 Rue des Riveurs, Lévis, QC G6Y 0A8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=418439590230124690&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5236136322070838712&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>46.7146025</v>
+        <v>46.82021719999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-71.08034680000002</v>
+        <v>-71.1203687</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ChIJD0EUHUDsuEwRkmigH5eYzgU</t>
+          <t>ChIJIw3AOl6VuEwRuH2NID5-qkg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Plomberie J.Bernier</t>
+          <t>Pierre Grenier Plomberie Chffg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>330 Rue Aimé Dion, Québec, QC G2N 2A1</t>
+          <t>746 Rue des Chaînons, Québec, QC G1C 8C1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5725612698801562543&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14827815500264211732&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>46.9077514</v>
+        <v>46.8832581</v>
       </c>
       <c r="G50" t="n">
-        <v>-71.35043879999999</v>
+        <v>-71.18936339999999</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ChIJryr8QrqmuEwRr2OI-Wl2dU8</t>
+          <t>ChIJLcSgyDC8uEwRFIVH6KL7xs0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Urgence débouchage Quebec</t>
+          <t>Groupe Lachance Plomberie Chauffage</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1210 Rue J. A. Bombardier, Saint-Nicolas, QC G7A 2P4</t>
+          <t>429 Rue Seigneuriale, Québec, QC G1C 3R2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11475988914217938144&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17674381058117155865&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>46.6751935</v>
+        <v>46.8871717</v>
       </c>
       <c r="G51" t="n">
-        <v>-71.34062059999999</v>
+        <v>-71.2091243</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ChIJrZAwG4iPuEwR4OxHdh3nQp8</t>
+          <t>ChIJ_SuHQnq8uEwRGTz38e0DSPU</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bildrain 2010 inc.</t>
+          <t>Plomberie Forand et frères</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3000 Av. Watt, Québec, QC G1X 3Y8</t>
+          <t>1265-A Rue de la Jonquière, Québec, QC G1N 3X1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2914265378913855722&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13992363664419858935&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>46.7851805</v>
+        <v>46.8056373</v>
       </c>
       <c r="G52" t="n">
-        <v>-71.32219549999999</v>
+        <v>-71.2632843</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ChIJq6rqzBqYuEwR6ihh8-uMcSg</t>
+          <t>ChIJj9qaZtG9uEwR9ynUOZ7cLsI</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Plomberie Pichette Inc</t>
+          <t>Plomberie G-NIE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>965 Av. Godin, Québec, QC G1M 2X5</t>
+          <t>1791 Chem. de Château-Bigot, Québec, QC G2L 1T8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9016192366198275212&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14241974635399196381&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>46.8247772</v>
+        <v>46.8986007</v>
       </c>
       <c r="G53" t="n">
-        <v>-71.28211180000001</v>
+        <v>-71.25444949999999</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ChIJmV52vrmXuEwRjDzW7S_zH30</t>
+          <t>ChIJAQDsMsS8uEwR3a4XQ3mopcU</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terexca - Excavation et drainage</t>
+          <t>Plomberie Toutant Services INC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>356 Rue Jackson, Québec, QC G1N 4C5</t>
+          <t>2085 Rue de l'Alliance, Québec, QC G3E 2J1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7531966909072222458&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15481201611552742278&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>46.8017464</v>
+        <v>46.8738774</v>
       </c>
       <c r="G54" t="n">
-        <v>-71.2624091</v>
+        <v>-71.34533639999999</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ChIJ78LZOP2WuEwR-ig_a__rhmg</t>
+          <t>ChIJfd7uHr-juEwRhlvOwNdG2NY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Techno-Pompes Inc</t>
+          <t>PLOMBERIE PROVENCHER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6055 Rue des Tournelles, Québec, QC G2J 1P7</t>
+          <t>1154 R. Chateaubriand, Lévis, QC G6V 5A2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13295273233957485440&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7188180124944191720&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>46.8397462</v>
+        <v>46.7910092</v>
       </c>
       <c r="G55" t="n">
-        <v>-71.27970239999999</v>
+        <v>-71.17796869999999</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ChIJN-STwtyXuEwRgHvLnZBMgrg</t>
+          <t>ChIJ3fPsW6uVuEwR6FDSML2LwWM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dubéxpert Inc - Plomberie, chauffage, électricité et drain à Québec</t>
+          <t>Plomberie M3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2205 Wilfrid-Hamel Blvd #100a, Québec City, QC G1P 2H8</t>
+          <t>527 Rte des Prêtres, Saint-Pierre, QC G0A 4E0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7425244944671681513&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14713229029869155919&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>46.8062143</v>
+        <v>46.8874657</v>
       </c>
       <c r="G56" t="n">
-        <v>-71.29279869999999</v>
+        <v>-71.0686717</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ChIJhyrKBXOXuEwR6atrwe_EC2c</t>
+          <t>ChIJYeKhG2C_uEwRT_ZQQNnjL8w</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Plomberie de la Capitale 2.0</t>
+          <t>Plomberie B G Saint-Elzéar</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6345 Bd Wilfrid-Hamel local 102, L'Ancienne-Lorette, QC G2E 5W2</t>
+          <t>710 Rue des Érables, Saint-Elzéar, QC G0S 2J1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7329124384553655238&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2257622205683902716&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>46.7947663</v>
+        <v>46.4023855</v>
       </c>
       <c r="G57" t="n">
-        <v>-71.3506969</v>
+        <v>-71.067984</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ChIJ8TaxE1tmB0ERxlv538tHtmU</t>
+          <t>ChIJz2uQdDdRuEwR_KjSRm-vVB8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Plomberie François Blouin</t>
+          <t>Plomberie Orléans Inc</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>650 Rue Astrid, Québec, QC G2L 2G5</t>
+          <t>3 Rue de Moncel, Québec, QC G1E 5M8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7675206882876371788&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13073018450301760487&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>46.8798135</v>
+        <v>46.8592805</v>
       </c>
       <c r="G58" t="n">
-        <v>-71.2384653</v>
+        <v>-71.18168659999999</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ChIJqf3lM2G9uEwRTLN6t_7Pg2o</t>
+          <t>ChIJd761-3e-uEwR5zNdSASxbLU</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Plomberie Thomas Paré &amp; fils Ltée</t>
+          <t>Bildrain 2010 inc.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9322 Bd Sainte-Anne, Sainte-Anne-de-Beaupré, QC G0A 3C0</t>
+          <t>3000 Av. Watt, Québec, QC G1X 3Y8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3872152345935171556&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2914265378913855722&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>47.0148831</v>
+        <v>46.7851805</v>
       </c>
       <c r="G59" t="n">
-        <v>-70.94545359999999</v>
+        <v>-71.32219549999999</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ChIJM41Gv-fJuEwR5E-pBwumvDU</t>
+          <t>ChIJq6rqzBqYuEwR6ihh8-uMcSg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Corporation Emco</t>
+          <t>Groupe Choukar</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1507 Rue du Chinook, Québec City, QC G2K 0M7</t>
+          <t>875 Rue Paradis, Québec, QC G1V 2T7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9906587532979071185&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12885182029214979425&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>46.8325508</v>
+        <v>46.7866253</v>
       </c>
       <c r="G60" t="n">
-        <v>-71.2893993</v>
+        <v>-71.2651257</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ChIJvT7rfvuWuEwR0eiHt99Ee4k</t>
+          <t>ChIJkZ4wieqWuEwRYRWbdclc0bI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Plomberie Chauffage De Launière et fils</t>
+          <t>Plomberie R. Bernard et fils Inc</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>132 Av. des Trembles, Saint-Raymond, QC G3L 3K7</t>
+          <t>555 Rue de Kilkenny, Shannon, QC G3N 3C3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14378519977813594983&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=6483962269078293536&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>46.89695039999999</v>
+        <v>46.9097495</v>
       </c>
       <c r="G61" t="n">
-        <v>-71.81655619999999</v>
+        <v>-71.6118477</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ChIJqdtRUah5kA0RZ9NvOb3Disc</t>
+          <t>ChIJvTepTgtex0wRIIxyiVSp-1k</t>
         </is>
       </c>
     </row>

--- a/leads_quebec_plomberie.xlsx
+++ b/leads_quebec_plomberie.xlsx
@@ -423,8 +423,8 @@
   <cols>
     <col width="60" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -484,6 +484,16 @@
           <t>390 75e Rue E, Québec, QC G1H 1H6</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+1 418-655-3438</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://www.plomberiesolutech.ca/</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>https://maps.google.com/?cid=12123255058352361454&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
@@ -504,28 +514,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Plomberie Solutions MJ Inc.</t>
+          <t>Plomberie Levasseur &amp; Fils | Plombier à Québec</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A-581 Rue Marius-Fortier, Québec, QC G1C 0N4</t>
+          <t>769 Rue de Coligny, Québec, QC G2K 2M6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+1 581-992-5177</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://plomberielevasseuretfils.ca/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13357338345029790198&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12575381276523096320&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46.8926546</v>
+        <v>46.84061579999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-71.1868063</v>
+        <v>-71.2913519</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ChIJKUDy-_S9uEwR9mk0YHTMXrk</t>
+          <t>ChIJO3EqIbJBx0wRAOlBzqS6hK4</t>
         </is>
       </c>
     </row>
@@ -540,6 +560,16 @@
           <t>3047 Rue Lechasseur, Québec, QC G1W 1L2</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+1 418-803-3323</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.411habitation.com/plombiers/quebec/sainte-foy-2/plomberie-sainte-foy.htm</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>https://maps.google.com/?cid=5814416574411631864&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
@@ -560,588 +590,778 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Plomberie Amiral</t>
+          <t>Plomberie Solutions MJ Inc.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>325 Rue Raoul-Jobin, Québec, QC G1K 1M9</t>
+          <t>A-581 Rue Marius-Fortier, Québec, QC G1C 0N4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+1 418-808-6343</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://www.plomberiesolutionsmj.com/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13003271467615787808&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13357338345029790198&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46.8113307</v>
+        <v>46.8926546</v>
       </c>
       <c r="G5" t="n">
-        <v>-71.23754009999999</v>
+        <v>-71.1868063</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ChIJE695ay9db2sRIBs2aYHmdLQ</t>
+          <t>ChIJKUDy-_S9uEwR9mk0YHTMXrk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOS Plomberie | Urgences 24/7, Débouchage, Inspection par caméra &amp; Rénovation à Québec</t>
+          <t>Plomberie Amiral</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>356 Rue Jackson Suite 101, Québec, QC G1N 4C5</t>
+          <t>325 Rue Raoul-Jobin, Québec, QC G1K 1M9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+1 418-265-5377</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.plomberieamiral.com/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5598130639862089749&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13003271467615787808&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>46.8016776</v>
+        <v>46.8113307</v>
       </c>
       <c r="G6" t="n">
-        <v>-71.2624421</v>
+        <v>-71.23754009999999</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ChIJrRirMzG9uEwRFcg1IyiOsE0</t>
+          <t>ChIJE695ay9db2sRIBs2aYHmdLQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plomberie Levasseur &amp; Fils | Plombier à Québec</t>
+          <t>Plomberie Jeff Gagné inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>769 Rue de Coligny, Québec, QC G2K 2M6</t>
+          <t>2061 Rue Gérard Bergeron, Québec, QC G1P 2W4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+1 418-681-1112</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>http://www.plomberiejeffgagne.com/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12575381276523096320&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7927500919212732575&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>46.84061579999999</v>
+        <v>46.81333559999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-71.2913519</v>
+        <v>-71.29362929999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ChIJO3EqIbJBx0wRAOlBzqS6hK4</t>
+          <t>ChIJVZQN16aXuEwRn_BBlhUkBG4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Plomberie Fortin</t>
+          <t>SOS Plomberie | Urgences 24/7, Débouchage, Inspection par caméra &amp; Rénovation à Québec</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4850 3e Avenue O, Québec, QC G1H 6R4</t>
+          <t>356 Rue Jackson Suite 101, Québec, QC G1N 4C5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+1 418-928-3536</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>http://www.sosplomberie.quebec/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17956900087655928545&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5598130639862089749&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>46.8445936</v>
+        <v>46.8016776</v>
       </c>
       <c r="G8" t="n">
-        <v>-71.2564703</v>
+        <v>-71.2624421</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ChIJ1UlCHc4Wv0wR4ZLpb325M_k</t>
+          <t>ChIJrRirMzG9uEwRFcg1IyiOsE0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boucher Lortie</t>
+          <t>Plomberie Quessy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>850 Rue des Rocailles, Québec, QC G2J 1A5</t>
+          <t>1332 Rue Pierre-Beaumont A-100, Lévis, QC G6Z 2L1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+1 418-803-7115</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://plomberiequessy.com/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=10379916160859026397&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1253598390143357638&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>46.8348379</v>
+        <v>46.7055026</v>
       </c>
       <c r="G9" t="n">
-        <v>-71.280013</v>
+        <v>-71.2246889</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ChIJ7ydhc8SXuEwR3bNWzsDeDJA</t>
+          <t>ChIJRU22w_aSuEwRxhJ_DxitZRE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plomberie &amp; excavation m3</t>
+          <t>Plomberie Ghislain Gagné inc. | Plombier Ville de Québec</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4560 3e Avenue O, Québec, QC G1H 6E5</t>
+          <t>5237 Wilfrid-Hamel Blvd Suite 190, Québec City, QC G2E 2H2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+1 418-653-3138</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.plomberiegagne.com/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2529716385818541861&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8033770198650019317&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>46.8426745</v>
+        <v>46.8012045</v>
       </c>
       <c r="G10" t="n">
-        <v>-71.25470319999999</v>
+        <v>-71.3346052</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ChIJbwGGRC-XuEwRJf8yX6ZbGyM</t>
+          <t>ChIJbRwvmnGXuEwR9V2nUW6vfW8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Le Groupe LOGIC</t>
+          <t>Plomberie Avantage SP | Débouchage &amp; Plombier à Lévis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>275 Ave Saint-Sacrement #190, Québec, QC G1N 1N3</t>
+          <t>2864 Rue de Lusignan, Lévis, QC G6W 8K4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+1 418-440-6756</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://plomberieavantagesp.com/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18222881974587023444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15471963140437735643&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>46.8016627</v>
+        <v>46.764503</v>
       </c>
       <c r="G11" t="n">
-        <v>-71.2603884</v>
+        <v>-71.21063959999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ChIJ0-3vDq-9uEwRVOAgX5uu5Pw</t>
+          <t>ChIJbZFR-yWB3oQR23i6k4B0t9Y</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Plomberie Quessy</t>
+          <t>Plomberie X-EAU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1332 Rue Pierre-Beaumont A-100, Lévis, QC G6Z 2L1</t>
+          <t>10425 Rue de Bretagne, Québec, QC G2B 2R2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+1 581-703-3211</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.x-eau.ca/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1253598390143357638&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12060225707467523611&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46.7055026</v>
+        <v>46.8538228</v>
       </c>
       <c r="G12" t="n">
-        <v>-71.2246889</v>
+        <v>-71.33519</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ChIJRU22w_aSuEwRxhJ_DxitZRE</t>
+          <t>ChIJ01pEqYWXvE8RG8aiFGKHXqc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Plomberie Sylvain Genois</t>
+          <t>Le Groupe LOGIC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8250 Rue des Grizzlis, Québec, QC G1G 1A6</t>
+          <t>275 Ave Saint-Sacrement #190, Québec, QC G1N 1N3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+1 418-520-1544</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://serviceslogic.ca/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14090014467230099246&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=18222881974587023444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>46.89068349999999</v>
+        <v>46.8016627</v>
       </c>
       <c r="G13" t="n">
-        <v>-71.2947729</v>
+        <v>-71.2603884</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ChIJWQx6AtiiuEwRLmddf4HJicM</t>
+          <t>ChIJ0-3vDq-9uEwRVOAgX5uu5Pw</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Plomberie Jeff Gagné inc.</t>
+          <t>Plomberie D. Labrecque</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2061 Rue Gérard Bergeron, Québec, QC G1P 2W4</t>
+          <t>1480 Rue Jandomien, L'Ancienne-Lorette, QC G2E 1T8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+1 418-264-8119</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7927500919212732575&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7515728362979185801&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46.81333559999999</v>
+        <v>46.8053472</v>
       </c>
       <c r="G14" t="n">
-        <v>-71.29362929999999</v>
+        <v>-71.3496847</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ChIJVZQN16aXuEwRn_BBlhUkBG4</t>
+          <t>ChIJJ0zLjkBw06IRidSzRyA7TWg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Plomberie Ghislain Gagné inc. | Plombier Ville de Québec</t>
+          <t>Plomberie Fortin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5237 Wilfrid-Hamel Blvd Suite 190, Québec City, QC G2E 2H2</t>
+          <t>4850 3e Avenue O, Québec, QC G1H 6R4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+1 418-623-0829</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>http://www.plomberiefortin.com/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8033770198650019317&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17956900087655928545&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46.8012045</v>
+        <v>46.8445936</v>
       </c>
       <c r="G15" t="n">
-        <v>-71.3346052</v>
+        <v>-71.2564703</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ChIJbRwvmnGXuEwR9V2nUW6vfW8</t>
+          <t>ChIJ1UlCHc4Wv0wR4ZLpb325M_k</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Plomberie Amad'eau</t>
+          <t>Boucher Lortie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1449 Avenue de la Montagne E, Québec, QC G3K 1R8</t>
+          <t>850 Rue des Rocailles, Québec, QC G2J 1A5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+1 418-623-2323</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>http://www.boucherlortie.com/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9595328968733221011&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=10379916160859026397&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>46.8502869</v>
+        <v>46.8348379</v>
       </c>
       <c r="G16" t="n">
-        <v>-71.41838749999999</v>
+        <v>-71.280013</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ChIJY7OAr-KZuEwRk-Bb3Nt0KYU</t>
+          <t>ChIJ7ydhc8SXuEwR3bNWzsDeDJA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Plomberie Avantage SP | Débouchage &amp; Plombier à Lévis</t>
+          <t>Plomberie &amp; excavation m3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2864 Rue de Lusignan, Lévis, QC G6W 8K4</t>
+          <t>4560 3e Avenue O, Québec, QC G1H 6E5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+1 581-305-5025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.m3plomberie.com/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15471963140437735643&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2529716385818541861&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>46.764503</v>
+        <v>46.8426745</v>
       </c>
       <c r="G17" t="n">
-        <v>-71.21063959999999</v>
+        <v>-71.25470319999999</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ChIJbZFR-yWB3oQR23i6k4B0t9Y</t>
+          <t>ChIJbwGGRC-XuEwRJf8yX6ZbGyM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Plomberie X-EAU</t>
+          <t>Plombier All'eau inc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10425 Rue de Bretagne, Québec, QC G2B 2R2</t>
+          <t>1573 Rue Ranvoyzé, Québec, QC G1W 3J8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+1 581-777-7564</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12060225707467523611&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=3253409267701587310&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>46.8538228</v>
+        <v>46.764232</v>
       </c>
       <c r="G18" t="n">
-        <v>-71.33519</v>
+        <v>-71.27565299999999</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ChIJ01pEqYWXvE8RG8aiFGKHXqc</t>
+          <t>ChIJcdMjaUqRuEwRbh1R3n1uJi0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Plomberie D. Labrecque</t>
+          <t>Plomberie AquaMax Inc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1480 Rue Jandomien, L'Ancienne-Lorette, QC G2E 1T8</t>
+          <t>96 Des Monardes, Sainte-Brigitte-de-Laval, QC G0A 3K0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+1 418-806-9542</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>http://www.plomberieaquamax.com/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7515728362979185801&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15809396369182867683&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>46.8053472</v>
+        <v>46.987798</v>
       </c>
       <c r="G19" t="n">
-        <v>-71.3496847</v>
+        <v>-71.211856</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ChIJJ0zLjkBw06IRidSzRyA7TWg</t>
+          <t>ChIJ4WqQnDmluEwR48B-ajxCZts</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Débouchage DM</t>
+          <t>Débouchage Économique</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8290 3e Avenue E, Québec, QC G1G 3T4</t>
+          <t>162 Rue Isaie, Québec, QC G1C 3Z6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+1 418-998-8133</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12182873668345565139&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13898480359845417960&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>46.8668521</v>
+        <v>46.8923235</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.2674708</v>
+        <v>-71.15800609999999</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ChIJjzOEZUIkvUIR048ywQ1DEqk</t>
+          <t>ChIJAZ3vYzW_uEwR6FNU_j9S4cA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Plomberie Lorenzo Robitaille et Fils Inc</t>
+          <t>Plomberie Charles Richard Inc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1140 Rue St Paul, L'Ancienne-Lorette, QC G2E 1Y3</t>
+          <t>615 Bd Pierre-Bertrand, Québec, QC G1M 3J3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+1 418-956-0234</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://plomberiecharlesrichard.ca/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1056530109726939484&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5058649129182464454&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>46.8014221</v>
+        <v>46.82053699999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-71.34549539999999</v>
+        <v>-71.26957899999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ChIJs4aicN6ZuEwRXFnHfImMqQ4</t>
+          <t>ChIJ9zen4Ri8uEwRxolCxJTuM0Y</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Débouchage Économique</t>
+          <t>Plomberie Sylvain Genois</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162 Rue Isaie, Québec, QC G1C 3Z6</t>
+          <t>8250 Rue des Grizzlis, Québec, QC G1G 1A6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+1 418-956-4691</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13898480359845417960&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14090014467230099246&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>46.8923235</v>
+        <v>46.89068349999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-71.15800609999999</v>
+        <v>-71.2947729</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ChIJAZ3vYzW_uEwR6FNU_j9S4cA</t>
+          <t>ChIJWQx6AtiiuEwRLmddf4HJicM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Urgence débouchage Quebec</t>
+          <t>PlomberieTitan Inc.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1210 Rue J. A. Bombardier, Saint-Nicolas, QC G7A 2P4</t>
+          <t>714 Rue de Saint-Romuald, Lévis, QC G6W 5M6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+1 418-882-0012</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.plomberietitan.com/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11475988914217938144&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1339845839317842370&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46.6751935</v>
+        <v>46.7469797</v>
       </c>
       <c r="G23" t="n">
-        <v>-71.34062059999999</v>
+        <v>-71.2238218</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ChIJrZAwG4iPuEwR4OxHdh3nQp8</t>
+          <t>ChIJGXyLh5GTuEwRwjlTKrEWmBI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Plomberie AquaMax Inc</t>
+          <t>PLOMBERIE DE LA CHAUDIÈRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>96 Des Monardes, Sainte-Brigitte-de-Laval, QC G0A 3K0</t>
+          <t>2084 Chem. Vanier, Saint-Jean-Chrysostome, QC G6Z 1A5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+1 581-443-4141</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.plomberiedelachaudiere.com/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15809396369182867683&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=6513233300439749058&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>46.987798</v>
+        <v>46.738726</v>
       </c>
       <c r="G24" t="n">
-        <v>-71.211856</v>
+        <v>-71.2038761</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ChIJ4WqQnDmluEwR48B-ajxCZts</t>
+          <t>ChIJbcXt8pmTuEwRwtH0my2nY1o</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Plomberie Bernier Inc</t>
+          <t>Plomberie Amad'eau</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>59 Rue Laliberté, Lévis, QC G6J 1Z5</t>
+          <t>1449 Avenue de la Montagne E, Québec, QC G3K 1R8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+1 418-262-6749</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://plomberieamadeau.com/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13187208562631615493&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=9595328968733221011&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>46.660729</v>
+        <v>46.8502869</v>
       </c>
       <c r="G25" t="n">
-        <v>-71.29707599999999</v>
+        <v>-71.41838749999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ChIJp7HdrVSYx0wRBaSlolFgArc</t>
+          <t>ChIJY7OAr-KZuEwRk-Bb3Nt0KYU</t>
         </is>
       </c>
     </row>
@@ -1156,6 +1376,16 @@
           <t>885 Av. des Diamants, Québec, QC G2L 2V4</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+1 418-571-0560</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.sosdrainage.com/</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>https://maps.google.com/?cid=10885420247312803818&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
@@ -1176,980 +1406,1305 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terexca - Excavation et drainage</t>
+          <t>Plomberie Lorenzo Robitaille et Fils Inc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>356 Rue Jackson, Québec, QC G1N 4C5</t>
+          <t>1140 Rue St Paul, L'Ancienne-Lorette, QC G2E 1Y3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+1 418-872-2954</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.plomberie-chauffage.ca/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7531966909072222458&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=1056530109726939484&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46.8017464</v>
+        <v>46.8014221</v>
       </c>
       <c r="G27" t="n">
-        <v>-71.2624091</v>
+        <v>-71.34549539999999</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ChIJ78LZOP2WuEwR-ig_a__rhmg</t>
+          <t>ChIJs4aicN6ZuEwRXFnHfImMqQ4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Plomberie signature inc</t>
+          <t>Plomberie François Gagnon</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1323 Rue Gunter, Québec, QC G3J 1M5</t>
+          <t>587 Rue Veillon, Québec, QC G1C 7L4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+1 581-745-5753</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://plomberiefg.com/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=700984619681542423&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5003826740369794036&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>46.8689653</v>
+        <v>46.8851348</v>
       </c>
       <c r="G28" t="n">
-        <v>-71.4467082</v>
+        <v>-71.19568649999999</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ChIJRV843GafuEwRF3EhMcxlugk</t>
+          <t>ChIJ-2DD14m9uEwR9KNXsegpcUU</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Plomberie Pichette Inc</t>
+          <t>Plomberie à bas prix</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>965 Av. Godin, Québec, QC G1M 2X5</t>
+          <t>33 Chem. Ferland N, L'Ange-Gardien, QC G0A 2K0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+1 418-473-3530</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>http://www.plomberiebasprix.ca/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9016192366198275212&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13038431323211578554&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>46.8247772</v>
+        <v>46.9600714</v>
       </c>
       <c r="G29" t="n">
-        <v>-71.28211180000001</v>
+        <v>-71.12988349999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ChIJmV52vrmXuEwRjDzW7S_zH30</t>
+          <t>ChIJpUpKO827uEwRujxaODXQ8bQ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Plomberie François Gagnon</t>
+          <t>MAC PLOMBERIE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>587 Rue Veillon, Québec, QC G1C 7L4</t>
+          <t>1251-B Rue Paul-Émile-Giroux, Québec, QC G1C 0K9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+1 418-666-0007</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>http://www.macplomberie.com/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5003826740369794036&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8336167483269235974&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>46.8851348</v>
+        <v>46.8897625</v>
       </c>
       <c r="G30" t="n">
-        <v>-71.19568649999999</v>
+        <v>-71.17994620000002</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ChIJ-2DD14m9uEwR9KNXsegpcUU</t>
+          <t>ChIJmdF_5zy8uEwRBsVsvCgEsHM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Plombier All'eau inc</t>
+          <t>SGL Climatisation Chauffage - Thermopompe - Climatiseur - Chaudière - Échangeur d'air - Accumulateur de chaleur Steffes</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1573 Rue Ranvoyzé, Québec, QC G1W 3J8</t>
+          <t>345 Rue des Entrepreneurs, Québec, QC G1M 1B4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+1 418-440-8516</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>http://www.sglclimatisationchauffage.com/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3253409267701587310&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8839464863476698444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>46.764232</v>
+        <v>46.8222021</v>
       </c>
       <c r="G31" t="n">
-        <v>-71.27565299999999</v>
+        <v>-71.27237579999999</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ChIJcdMjaUqRuEwRbh1R3n1uJi0</t>
+          <t>ChIJWV4U1h-XuEwRTE0TuHUWrHo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Plomberie à bas prix</t>
+          <t>Plomberie signature inc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>33 Chem. Ferland N, L'Ange-Gardien, QC G0A 2K0</t>
+          <t>1323 Rue Gunter, Québec, QC G3J 1M5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+1 581-446-2200</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>http://www.plomberiesignature.com/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13038431323211578554&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=700984619681542423&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>46.9600714</v>
+        <v>46.8689653</v>
       </c>
       <c r="G32" t="n">
-        <v>-71.12988349999999</v>
+        <v>-71.4467082</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ChIJpUpKO827uEwRujxaODXQ8bQ</t>
+          <t>ChIJRV843GafuEwRF3EhMcxlugk</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SGL Climatisation Chauffage - Thermopompe - Climatiseur - Chaudière - Échangeur d'air - Accumulateur de chaleur Steffes</t>
+          <t>Plomberie Patoine</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>345 Rue des Entrepreneurs, Québec, QC G1M 1B4</t>
+          <t>1108 Rue des Îles-Du-Vent, Lévis, QC G7A 0G8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+1 418-476-3443</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://plomberiepatoine.ca/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8839464863476698444&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=18301322236904799568&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>46.8222021</v>
+        <v>46.7102998</v>
       </c>
       <c r="G33" t="n">
-        <v>-71.27237579999999</v>
+        <v>-71.3718523</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ChIJWV4U1h-XuEwRTE0TuHUWrHo</t>
+          <t>ChIJB-Qe5RG9uEwRUP2qIpxb-_0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Plomberie Charles Richard Inc</t>
+          <t>Débouchage DM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>615 Bd Pierre-Bertrand, Québec, QC G1M 3J3</t>
+          <t>8290 3e Avenue E, Québec, QC G1G 3T4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+1 581-988-9512</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5058649129182464454&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12182873668345565139&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>46.82053699999999</v>
+        <v>46.8668521</v>
       </c>
       <c r="G34" t="n">
-        <v>-71.26957899999999</v>
+        <v>-71.2674708</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ChIJ9zen4Ri8uEwRxolCxJTuM0Y</t>
+          <t>ChIJjzOEZUIkvUIR048ywQ1DEqk</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PLOMBERIE chauffage montreal</t>
+          <t>Plomberie Dufour inc.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1020 Rue Bouvier, Québec, QC G2K 0K9</t>
+          <t>3247 Rue du Golf, Québec, QC G2A 1G1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+1 418-847-1999</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>http://www.plomberiedufour.com/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16772508769219017552&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12269831129571717854&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>46.8309894</v>
+        <v>46.8584405</v>
       </c>
       <c r="G35" t="n">
-        <v>-71.283241</v>
+        <v>-71.3712173</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ChIJ68VTd00NyUwRUHtsbdzrw-g</t>
+          <t>ChIJP182pISYuEwR3vImbGcyR6o</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dubéxpert Inc - Plomberie, chauffage, électricité et drain à Québec</t>
+          <t>Plomberie Orléans Inc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2205 Wilfrid-Hamel Blvd #100a, Québec City, QC G1P 2H8</t>
+          <t>3 Rue de Moncel, Québec, QC G1E 5M8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+1 418-666-4444</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://plomberieorleans.ca/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7425244944671681513&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13073018450301760487&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>46.8062143</v>
+        <v>46.8592805</v>
       </c>
       <c r="G36" t="n">
-        <v>-71.29279869999999</v>
+        <v>-71.18168659999999</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ChIJhyrKBXOXuEwR6atrwe_EC2c</t>
+          <t>ChIJd761-3e-uEwR5zNdSASxbLU</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Plomberie J-Y Paquet inc.</t>
+          <t>Marcel Leblanc &amp; Fils Inc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2073 Av. Branly Bureau 207, Québec, QC G1N 4C7</t>
+          <t>1400 Rue des Riveurs, Lévis, QC G6Y 0A8</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+1 418-837-7969</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://www.mletfilsplombier.ca/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8304718752594394229&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5236136322070838712&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>46.7935947</v>
+        <v>46.82021719999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-71.2722325</v>
+        <v>-71.1203687</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ChIJxw3VR8C9uEwRdfzph7RJQHM</t>
+          <t>ChIJIw3AOl6VuEwRuH2NID5-qkg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Plomberie Patoine</t>
+          <t>JF Plomberie Électricité</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1108 Rue des Îles-Du-Vent, Lévis, QC G7A 0G8</t>
+          <t>1231 Rue de Châteauneuf du Pape, Québec, QC G3E 1Y8</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+1 418-407-4007</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://jfelectrique.com/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18301322236904799568&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12395658752143686760&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>46.7102998</v>
+        <v>46.8714627</v>
       </c>
       <c r="G38" t="n">
-        <v>-71.3718523</v>
+        <v>-71.31658779999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ChIJB-Qe5RG9uEwRUP2qIpxb-_0</t>
+          <t>ChIJfX6nWb6iuEwRaHx8xvU5Bqw</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLOMBERIE DE LA CHAUDIÈRE</t>
+          <t>Québec Plombier</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2084 Chem. Vanier, Saint-Jean-Chrysostome, QC G6Z 1A5</t>
+          <t>8080 Rue de Burgos, Québec, QC G2C 0H4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+1 418-800-7555</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>http://quebecplombier.ca/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6513233300439749058&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=12839920322459034782&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>46.738726</v>
+        <v>46.8387646</v>
       </c>
       <c r="G39" t="n">
-        <v>-71.2038761</v>
+        <v>-71.3343441</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ChIJbcXt8pmTuEwRwtH0my2nY1o</t>
+          <t>ChIJ2QrmTxOXuEwRnmR9JIGPMLI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PlomberieTitan Inc.</t>
+          <t>Plomberie C Lyonnais Inc.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>714 Rue de Saint-Romuald, Lévis, QC G6W 5M6</t>
+          <t>700 Rue J. E. Cauchon, Québec City, QC G1J 2S9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+1 418-622-0360</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.plomberieslyonnais.com/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1339845839317842370&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=10185055236162651895&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46.7469797</v>
+        <v>46.8267018</v>
       </c>
       <c r="G40" t="n">
-        <v>-71.2238218</v>
+        <v>-71.22555509999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ChIJGXyLh5GTuEwRwjlTKrEWmBI</t>
+          <t>ChIJ00TR4RCWuEwR9wY1ScaVWI0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Plomberie Dufour inc.</t>
+          <t>Groupe Lachance Plomberie Chauffage</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3247 Rue du Golf, Québec, QC G2A 1G1</t>
+          <t>429 Rue Seigneuriale, Québec, QC G1C 3R2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>+1 418-741-2090</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://groupelachance.com/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12269831129571717854&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17674381058117155865&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>46.8584405</v>
+        <v>46.8871717</v>
       </c>
       <c r="G41" t="n">
-        <v>-71.3712173</v>
+        <v>-71.2091243</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ChIJP182pISYuEwR3vImbGcyR6o</t>
+          <t>ChIJ_SuHQnq8uEwRGTz38e0DSPU</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAC PLOMBERIE</t>
+          <t>Plomberie R. Bernard et fils Inc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1251-B Rue Paul-Émile-Giroux, Québec, QC G1C 0K9</t>
+          <t>555 Rue de Kilkenny, Shannon, QC G3N 3C3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100057350443795&amp;mibextid=LQQJ4d</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8336167483269235974&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=6483962269078293536&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>46.8897625</v>
+        <v>46.9097495</v>
       </c>
       <c r="G42" t="n">
-        <v>-71.17994620000002</v>
+        <v>-71.6118477</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ChIJmdF_5zy8uEwRBsVsvCgEsHM</t>
+          <t>ChIJvTepTgtex0wRIIxyiVSp-1k</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JF Plomberie Électricité</t>
+          <t>Plomberie Mathieu Parent Inc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1231 Rue de Châteauneuf du Pape, Québec, QC G3E 1Y8</t>
+          <t>7 Rue Industrielle, Saint-Bernard, QC G0S 2G0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>+1 418-389-7642</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.plomberiemathieuparent.com/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12395658752143686760&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2583943458677549132&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>46.8714627</v>
+        <v>46.5022078</v>
       </c>
       <c r="G43" t="n">
-        <v>-71.31658779999999</v>
+        <v>-71.1364334</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ChIJfX6nWb6iuEwRaHx8xvU5Bqw</t>
+          <t>ChIJXQ-DlX9YuEwRTGgrpuIC3CM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Plomberie B4 inc.</t>
+          <t>Plomberie Fernand Bélanger Inc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6 Av. Dion, Saint-Charles-de-Bellechasse, QC G0R 2T0</t>
+          <t>1205 Rue Francois Normand #110, Levis, QC G7A 5L9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>+1 418-831-2380</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://www.plomberiebelanger.ca/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7790127853041690178&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=17797040426531769046&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>46.7675312</v>
+        <v>46.6720358</v>
       </c>
       <c r="G44" t="n">
-        <v>-70.9469113</v>
+        <v>-71.33874419999999</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ChIJ1SFvoJM7F2IRQiZtKwIYHGw</t>
+          <t>ChIJG7imuTCQuEwR1kqxpPnJ-_Y</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Québec Plombier</t>
+          <t>Plomberie J-Y Paquet inc.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8080 Rue de Burgos, Québec, QC G2C 0H4</t>
+          <t>2073 Av. Branly Bureau 207, Québec, QC G1N 4C7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>+1 418-805-0525</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://plomberiejypaquet.com/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12839920322459034782&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=8304718752594394229&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>46.8387646</v>
+        <v>46.7935947</v>
       </c>
       <c r="G45" t="n">
-        <v>-71.3343441</v>
+        <v>-71.2722325</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ChIJ2QrmTxOXuEwRnmR9JIGPMLI</t>
+          <t>ChIJxw3VR8C9uEwRdfzph7RJQHM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Techno-Pompes Inc</t>
+          <t>Plomberie Bernier Inc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6055 Rue des Tournelles, Québec, QC G2J 1P7</t>
+          <t>59 Rue Laliberté, Lévis, QC G6J 1Z5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>+1 418-576-7125</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://www.plomberiebernier.com/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13295273233957485440&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13187208562631615493&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>46.8397462</v>
+        <v>46.660729</v>
       </c>
       <c r="G46" t="n">
-        <v>-71.27970239999999</v>
+        <v>-71.29707599999999</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ChIJN-STwtyXuEwRgHvLnZBMgrg</t>
+          <t>ChIJp7HdrVSYx0wRBaSlolFgArc</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Plomberie Fernand Bélanger Inc</t>
+          <t>Plomberie JPR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1205 Rue Francois Normand #110, Levis, QC G7A 5L9</t>
+          <t>2511 Rte du Président-Kennedy, Saint-Henri, QC G0R 3E0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>+1 418-882-6320</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://www.plomberiejpr.com/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17797040426531769046&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=418439590230124690&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>46.6720358</v>
+        <v>46.7146025</v>
       </c>
       <c r="G47" t="n">
-        <v>-71.33874419999999</v>
+        <v>-71.08034680000002</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ChIJG7imuTCQuEwR1kqxpPnJ-_Y</t>
+          <t>ChIJD0EUHUDsuEwRkmigH5eYzgU</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Plomberie Mathieu Parent Inc</t>
+          <t>Urgence débouchage Quebec</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7 Rue Industrielle, Saint-Bernard, QC G0S 2G0</t>
+          <t>1210 Rue J. A. Bombardier, Saint-Nicolas, QC G7A 2P4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>+1 418-877-4444</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://urgencedebouchagequebec.com/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2583943458677549132&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=11475988914217938144&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>46.5022078</v>
+        <v>46.6751935</v>
       </c>
       <c r="G48" t="n">
-        <v>-71.1364334</v>
+        <v>-71.34062059999999</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ChIJXQ-DlX9YuEwRTGgrpuIC3CM</t>
+          <t>ChIJrZAwG4iPuEwR4OxHdh3nQp8</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marcel Leblanc &amp; Fils Inc</t>
+          <t>Plomberie Toutant Services INC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1400 Rue des Riveurs, Lévis, QC G6Y 0A8</t>
+          <t>2085 Rue de l'Alliance, Québec, QC G3E 2J1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>+1 581-398-5116</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5236136322070838712&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=15481201611552742278&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>46.82021719999999</v>
+        <v>46.8738774</v>
       </c>
       <c r="G49" t="n">
-        <v>-71.1203687</v>
+        <v>-71.34533639999999</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ChIJIw3AOl6VuEwRuH2NID5-qkg</t>
+          <t>ChIJfd7uHr-juEwRhlvOwNdG2NY</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pierre Grenier Plomberie Chffg</t>
+          <t>Plomberie G-NIE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>746 Rue des Chaînons, Québec, QC G1C 8C1</t>
+          <t>1791 Chem. de Château-Bigot, Québec, QC G2L 1T8</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>+1 581-997-4643</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14827815500264211732&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14241974635399196381&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>46.8832581</v>
+        <v>46.8986007</v>
       </c>
       <c r="G50" t="n">
-        <v>-71.18936339999999</v>
+        <v>-71.25444949999999</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ChIJLcSgyDC8uEwRFIVH6KL7xs0</t>
+          <t>ChIJAQDsMsS8uEwR3a4XQ3mopcU</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Groupe Lachance Plomberie Chauffage</t>
+          <t>Bildrain 2010 inc.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>429 Rue Seigneuriale, Québec, QC G1C 3R2</t>
+          <t>3000 Av. Watt, Québec, QC G1X 3Y8</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>+1 418-847-6043</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://bildrain.ca/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17674381058117155865&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=2914265378913855722&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>46.8871717</v>
+        <v>46.7851805</v>
       </c>
       <c r="G51" t="n">
-        <v>-71.2091243</v>
+        <v>-71.32219549999999</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ChIJ_SuHQnq8uEwRGTz38e0DSPU</t>
+          <t>ChIJq6rqzBqYuEwR6ihh8-uMcSg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Plomberie Forand et frères</t>
+          <t>Plomberie M3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1265-A Rue de la Jonquière, Québec, QC G1N 3X1</t>
+          <t>527 Rte des Prêtres, Saint-Pierre, QC G0A 4E0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>+1 581-999-1800</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://plomberiem3.com/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13992363664419858935&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14713229029869155919&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>46.8056373</v>
+        <v>46.8874657</v>
       </c>
       <c r="G52" t="n">
-        <v>-71.2632843</v>
+        <v>-71.0686717</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ChIJj9qaZtG9uEwR9ynUOZ7cLsI</t>
+          <t>ChIJYeKhG2C_uEwRT_ZQQNnjL8w</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Plomberie G-NIE</t>
+          <t>Plomberie Pichette Inc</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1791 Chem. de Château-Bigot, Québec, QC G2L 1T8</t>
+          <t>965 Av. Godin, Québec, QC G1M 2X5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>+1 418-681-7378</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.plombiersquebec.com/quebec/entreprise/plomberie-pichette-inc</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14241974635399196381&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=9016192366198275212&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>46.8986007</v>
+        <v>46.8247772</v>
       </c>
       <c r="G53" t="n">
-        <v>-71.25444949999999</v>
+        <v>-71.28211180000001</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ChIJAQDsMsS8uEwR3a4XQ3mopcU</t>
+          <t>ChIJmV52vrmXuEwRjDzW7S_zH30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Plomberie Toutant Services INC</t>
+          <t>Plomberie J.Bernier</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2085 Rue de l'Alliance, Québec, QC G3E 2J1</t>
+          <t>330 Rue Aimé Dion, Québec, QC G2N 2A1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>+1 418-999-8859</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://espacehabitation.ca/fichepartenaire/81</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15481201611552742278&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=5725612698801562543&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>46.8738774</v>
+        <v>46.9077514</v>
       </c>
       <c r="G54" t="n">
-        <v>-71.34533639999999</v>
+        <v>-71.35043879999999</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ChIJfd7uHr-juEwRhlvOwNdG2NY</t>
+          <t>ChIJryr8QrqmuEwRr2OI-Wl2dU8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLOMBERIE PROVENCHER</t>
+          <t>Terexca - Excavation et drainage</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1154 R. Chateaubriand, Lévis, QC G6V 5A2</t>
+          <t>356 Rue Jackson, Québec, QC G1N 4C5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>+1 418-872-1717</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>http://www.terexca.ca/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7188180124944191720&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7531966909072222458&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>46.7910092</v>
+        <v>46.8017464</v>
       </c>
       <c r="G55" t="n">
-        <v>-71.17796869999999</v>
+        <v>-71.2624091</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ChIJ3fPsW6uVuEwR6FDSML2LwWM</t>
+          <t>ChIJ78LZOP2WuEwR-ig_a__rhmg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Plomberie M3</t>
+          <t>Techno-Pompes Inc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>527 Rte des Prêtres, Saint-Pierre, QC G0A 4E0</t>
+          <t>6055 Rue des Tournelles, Québec, QC G2J 1P7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>+1 418-623-2022</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.techno-pompes.com/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14713229029869155919&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=13295273233957485440&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>46.8874657</v>
+        <v>46.8397462</v>
       </c>
       <c r="G56" t="n">
-        <v>-71.0686717</v>
+        <v>-71.27970239999999</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ChIJYeKhG2C_uEwRT_ZQQNnjL8w</t>
+          <t>ChIJN-STwtyXuEwRgHvLnZBMgrg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Plomberie B G Saint-Elzéar</t>
+          <t>Dubéxpert Inc - Plomberie, chauffage, électricité et drain à Québec</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>710 Rue des Érables, Saint-Elzéar, QC G0S 2J1</t>
+          <t>2205 Wilfrid-Hamel Blvd #100a, Québec City, QC G1P 2H8</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>+1 418-872-3232</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://plomberie-dubexpert.cshq.ca/fr/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2257622205683902716&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7425244944671681513&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>46.4023855</v>
+        <v>46.8062143</v>
       </c>
       <c r="G57" t="n">
-        <v>-71.067984</v>
+        <v>-71.29279869999999</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ChIJz2uQdDdRuEwR_KjSRm-vVB8</t>
+          <t>ChIJhyrKBXOXuEwR6atrwe_EC2c</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Plomberie Orléans Inc</t>
+          <t>Corporation Emco</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3 Rue de Moncel, Québec, QC G1E 5M8</t>
+          <t>1507 Rue du Chinook, Québec City, QC G2K 0M7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>+1 418-681-4671</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://estulapiecemanquante.ca/emco/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13073018450301760487&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=9906587532979071185&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>46.8592805</v>
+        <v>46.8325508</v>
       </c>
       <c r="G58" t="n">
-        <v>-71.18168659999999</v>
+        <v>-71.2893993</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ChIJd761-3e-uEwR5zNdSASxbLU</t>
+          <t>ChIJvT7rfvuWuEwR0eiHt99Ee4k</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bildrain 2010 inc.</t>
+          <t>Plomberie de la Capitale 2.0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3000 Av. Watt, Québec, QC G1X 3Y8</t>
+          <t>6345 Bd Wilfrid-Hamel local 102, L'Ancienne-Lorette, QC G2E 5W2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>+1 418-780-5710</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://plomberiedelacapitale.com/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2914265378913855722&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=7329124384553655238&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>46.7851805</v>
+        <v>46.7947663</v>
       </c>
       <c r="G59" t="n">
-        <v>-71.32219549999999</v>
+        <v>-71.3506969</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ChIJq6rqzBqYuEwR6ihh8-uMcSg</t>
+          <t>ChIJ8TaxE1tmB0ERxlv538tHtmU</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Groupe Choukar</t>
+          <t>Plomberie Thomas Paré &amp; fils Ltée</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>875 Rue Paradis, Québec, QC G1V 2T7</t>
+          <t>9322 Bd Sainte-Anne, Sainte-Anne-de-Beaupré, QC G0A 3C0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>+1 418-827-2981</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://accesgo.com/entreprise/plomberie-thomas-pare-fils-ltee-ste-anne-de-beaupre</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12885182029214979425&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=3872152345935171556&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>46.7866253</v>
+        <v>47.0148831</v>
       </c>
       <c r="G60" t="n">
-        <v>-71.2651257</v>
+        <v>-70.94545359999999</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ChIJkZ4wieqWuEwRYRWbdclc0bI</t>
+          <t>ChIJM41Gv-fJuEwR5E-pBwumvDU</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Plomberie R. Bernard et fils Inc</t>
+          <t>Plomberie Chauffage De Launière et fils</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>555 Rue de Kilkenny, Shannon, QC G3N 3C3</t>
+          <t>132 Av. des Trembles, Saint-Raymond, QC G3L 3K7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>+1 418-809-0661</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6483962269078293536&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
+          <t>https://maps.google.com/?cid=14378519977813594983&amp;g_mp=Cidnb29nbGUubWFwcy5wbGFjZXMudjEuUGxhY2VzLlNlYXJjaFRleHQQAhgEIAA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>46.9097495</v>
+        <v>46.89695039999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-71.6118477</v>
+        <v>-71.81655619999999</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ChIJvTepTgtex0wRIIxyiVSp-1k</t>
+          <t>ChIJqdtRUah5kA0RZ9NvOb3Disc</t>
         </is>
       </c>
     </row>
